--- a/output.xlsx
+++ b/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="427">
   <si>
     <t>排序</t>
   </si>
@@ -22,13 +22,13 @@
     <t>大模型对该话题的分类</t>
   </si>
   <si>
-    <t>开发者贡献与支持</t>
+    <t>新硬件的支持</t>
   </si>
   <si>
     <t>话题描述</t>
   </si>
   <si>
-    <t>开发者需要解决Conan仓库配置异常、代码生成依赖混淆、构建签名中断及调试组件集成等共性问题。</t>
+    <t>开发者亟需明确Ascend C算子在昇腾310/910系列芯片的适配限制及动态shape切分实现</t>
   </si>
   <si>
     <t>相关讨论源（title&amp;url）</t>
@@ -37,343 +37,1264 @@
     <t/>
   </si>
   <si>
-    <t>open-repo仓dev_tools_with_bmcgo.zip提供的bingo工具问题</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/701/1</t>
-  </si>
-  <si>
-    <t>manufacture 代码仓 bingo gen</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/978/1</t>
-  </si>
-  <si>
-    <t>conan 远端仓访问出错</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/467/1</t>
-  </si>
-  <si>
-    <t>社区conan仓库不通</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/339/1</t>
-  </si>
-  <si>
-    <t>25.03 fructrl源码构建时出文件找不到的错</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/510/1</t>
-  </si>
-  <si>
-    <t>历史提交全清导致历史版本无法源码构建</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/fructrl/issues/1</t>
-  </si>
-  <si>
-    <t>不指定远端conan仓编译失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/970/1</t>
-  </si>
-  <si>
-    <t>社区conan仓无法在虚拟仓配置中使用</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/705/1</t>
-  </si>
-  <si>
-    <t>bingo gen 代码生成问题咨询</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1074/1</t>
-  </si>
-  <si>
-    <t>conan仓remote地址不能被Jfrog聚合</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/infrastructure/issues/24</t>
-  </si>
-  <si>
-    <t>openubmc社区conan仓使用指导</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/186/1</t>
-  </si>
-  <si>
-    <t>Q1 main分支f8acc985 bmcgo 构建失败：not found in ibmc_dev</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/848/1</t>
-  </si>
-  <si>
-    <t>busybox作为conan组件编入openUBMC实践分享</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/406/1</t>
-  </si>
-  <si>
-    <t>openUBMC调试工具安装指导</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/415/1</t>
-  </si>
-  <si>
-    <t>bingo build -b openUBMC -r openubmc_dev报错签名失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/1056/1</t>
-  </si>
-  <si>
-    <t>Jfrog绑定新的社区conan仓地址无效</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/500/1</t>
-  </si>
-  <si>
-    <t>fructrl的历史提交全清了，导致manifest构建失败</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/340/1</t>
-  </si>
-  <si>
-    <t>支持telnetd以及i2c_tools等工具</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/conan_index/issues/2</t>
-  </si>
-  <si>
-    <t>BMC开发者如何验证QEMU网络参数及IPMI配置与固件网卡的适配性</t>
-  </si>
-  <si>
-    <t>Qemu运行跑起固件后SSH、web、ipmi不通的问题求助</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/661/1</t>
-  </si>
-  <si>
-    <t>openUBMC怎么使用qemu运行</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/227/1</t>
-  </si>
-  <si>
-    <t>qemu启动之后，ssh可以访问，但是web和ipmi都无法访问</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/718/1</t>
-  </si>
-  <si>
-    <t>Qemu常见问题归纳</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/726/1</t>
-  </si>
-  <si>
-    <t>Qemu使用指南</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/636/1</t>
-  </si>
-  <si>
-    <t>如何快速启动Qemu</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/544/1</t>
-  </si>
-  <si>
-    <t>社区镜像中BMC工具QEMU与Bingo的一键部署配置</t>
-  </si>
-  <si>
-    <t>社区镜像支持集成BMCStudio和Bingo及工具依赖</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/infrastructure/issues/1</t>
-  </si>
-  <si>
-    <t>支持Qemu工具和仿真镜像的本地一键部署</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/9</t>
-  </si>
-  <si>
-    <t>社区镜像支持集成BMCStudio和Bingo工具</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/manifest/issues/13</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/2</t>
-  </si>
-  <si>
-    <t>社区镜像支持集成Qemu工具和仿真镜像</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/infrastructure/issues/9</t>
-  </si>
-  <si>
-    <t>OpenUBMC25 06版本需通过QEMU实现板卡器件多路转换器及EEPROM仿真读写功能，依托i2c总线与hi1711 soc能力完成硬件解耦验证</t>
-  </si>
-  <si>
-    <t>【需求】支持eeprom器件功能仿真和验证</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/13</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡寄存器的设备仿真</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/11</t>
-  </si>
-  <si>
-    <t>【需求】支持板卡多路转换器的设备仿真</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/qemu/issues/10</t>
-  </si>
-  <si>
-    <t>硬件兼容性</t>
-  </si>
-  <si>
-    <t>BMC开发者如何验证双CPLD硬盘背板的I2C配置与独立控制能力</t>
-  </si>
-  <si>
-    <t>双CPLD硬盘背板疑问</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/688/1</t>
-  </si>
-  <si>
-    <t>硬盘背板CSR配置疑问</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/756/1</t>
-  </si>
-  <si>
-    <t>新增OCP卡调速策略时如何确保CoolingPolicy的ID唯一性与正确关联</t>
-  </si>
-  <si>
-    <t>调速配置求助</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/317/1</t>
-  </si>
-  <si>
-    <t>板卡的环温调速配置</t>
-  </si>
-  <si>
-    <t>https://discuss.openubmc.cn//t/topic/326/1</t>
-  </si>
-  <si>
-    <t>新硬件的支持</t>
-  </si>
-  <si>
-    <t>实现BMC对多型号网卡的CSR适配、带内外信息采集及Redfish/Web/SNMP接口集成，确保告警配置验证与调速功能兼容性</t>
-  </si>
-  <si>
-    <t>【需求】支持管理网卡SWIFT-2200N</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/31</t>
-  </si>
-  <si>
-    <t>【需求】支持管理网卡SP625D</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/36</t>
-  </si>
-  <si>
-    <t>【需求】支持管理网卡SP680</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/34</t>
-  </si>
-  <si>
-    <t>【需求】支持管理网卡SF221Q</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/35</t>
-  </si>
-  <si>
-    <t>【需求】支持管理网卡MCX631432AN-ADAB的能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/22</t>
-  </si>
-  <si>
-    <t>【需求】支持管理网卡SF400HT</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/38</t>
-  </si>
-  <si>
-    <t>【需求】支持管理网卡SF223D-H</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/37</t>
-  </si>
-  <si>
-    <t>【需求】支持管理网卡MCX755106AS-HEAT</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/33</t>
-  </si>
-  <si>
-    <t>【需求】支持管理网卡MCX631102AN-ADAT的能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/23</t>
-  </si>
-  <si>
-    <t>【需求】支持管理网卡MCX512A-ACAT</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/41</t>
-  </si>
-  <si>
-    <t>【需求】支持管理网卡QLE2742</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/40</t>
-  </si>
-  <si>
-    <t>【需求】支持管理网卡SF200HT</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/vpd/issues/39</t>
-  </si>
-  <si>
-    <t>【需求】支持管理网卡MCX512A-ACUT</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/network_adapter/issues/24</t>
-  </si>
-  <si>
-    <t>硬件管理能力</t>
-  </si>
-  <si>
-    <t>BMC固件开发中如何实现风扇模式切换与持久化兼容性</t>
-  </si>
-  <si>
-    <t>【需求】支持查询风扇手自动控制模式原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/18</t>
-  </si>
-  <si>
-    <t>【需求】新增设置/查询风扇控制模式持久化属性/方法</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/rackmount/issues/26</t>
-  </si>
-  <si>
-    <t>【需求】支持设置风扇手自动控制模式原子能力</t>
-  </si>
-  <si>
-    <t>https://gitcode.com/openUBMC/thermal_mgmt/issues/19</t>
+    <t>ascend c适用范围咨询</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0295152270005946033-1-1.html</t>
+  </si>
+  <si>
+    <t>Ascend C笔记</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0265155974032687276-1-1.html</t>
+  </si>
+  <si>
+    <t>Ascend C算子开发笔记</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0265156651507211358-1-1.html</t>
+  </si>
+  <si>
+    <t>Ascend C Sinh算子开发——香橙派310B</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0261155955587482283-1-1.html</t>
+  </si>
+  <si>
+    <t>概述</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0230132196288406104-1-1.html</t>
+  </si>
+  <si>
+    <t>AscendC从入门到精通系列（三）基于自定义算子工程开发AscendC算子</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0215169734814021026-1-1.html</t>
+  </si>
+  <si>
+    <t>基于Ascend C语言的算子开发课堂笔记</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0265156664240086361-1-1.html</t>
+  </si>
+  <si>
+    <t>Ascend C算子开发（入门）——模块一 基本概念</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0268129361755245030-1-1.html</t>
+  </si>
+  <si>
+    <t>昇腾AI软硬件基础</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0271133628426664057-1-1.html</t>
+  </si>
+  <si>
+    <t>Ascend C算子笔记</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0265156050882301293-1-1.html</t>
+  </si>
+  <si>
+    <t>Ascend C学习  （对比cuda实现）</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0276135240172990031-1-1.html</t>
+  </si>
+  <si>
+    <t>AscendC从入门到精通系列（二）基于Kernel直调开发AscendC算子</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02108169734696084029-1-1.html</t>
+  </si>
+  <si>
+    <t>Ascend C算子开发基础概念笔记</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0272155144955673178-1-1.html</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0272156598721012351-1-1.html</t>
+  </si>
+  <si>
+    <t>CANN中的Ascend C算子开源吗</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0257134721895574066-1-1.html</t>
+  </si>
+  <si>
+    <t>几个不错的Ascend资源</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0274134111027983025-1-1.html</t>
+  </si>
+  <si>
+    <t>Ascend C算子流程开发笔记(以sinh算子为例)</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0265155143126045168-1-1.html</t>
+  </si>
+  <si>
+    <t>对算子的编译、调用流程不是很清楚</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0297177756742392029-1-1.html</t>
+  </si>
+  <si>
+    <t>Ascend 算子开发实战+基础算子开发命题笔记（以ThreeNN为例）</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0265156597384707353-1-1.html</t>
+  </si>
+  <si>
+    <t>AscendC从入门到精通系列（五）调用基于工程开发AscendC算子</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0246169734946831031-1-1.html</t>
+  </si>
+  <si>
+    <t>Ascend C的编程模型</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0230168764219294034-1-1.html</t>
+  </si>
+  <si>
+    <t>核函数</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0272155828772805269-1-1.html</t>
+  </si>
+  <si>
+    <t>如何在启智平台搭建Ascend C开发环境</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0255146200919945019-1-1.html</t>
+  </si>
+  <si>
+    <t>从零开始Ascend C</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0225132656408648148-1-1.html</t>
+  </si>
+  <si>
+    <t>AscendC从入门到精通系列（一）初步感知AscendC</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02108169734505679028-1-1.html</t>
+  </si>
+  <si>
+    <t>基于vscode+wsl2搭建AscendC算子开发和调试环境</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0282137393166587032-1-1.html</t>
+  </si>
+  <si>
+    <t>从零开始Ascend C day2</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0225132734737124151-1-1.html</t>
+  </si>
+  <si>
+    <t>AscendC从入门到精通系列（四）使用Pybind调用AscendC算子</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0215169734866474027-1-1.html</t>
+  </si>
+  <si>
+    <t>Ascend C环境准备</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0235128261452483095-1-1.html</t>
+  </si>
+  <si>
+    <t>Ascend C编程范式</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0274133763664144003-1-1.html</t>
+  </si>
+  <si>
+    <t>ascend c 核函数</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0230132739875974152-1-1.html</t>
+  </si>
+  <si>
+    <t>工具与文档支持</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者亟需解决ais-bench推理工具的输入占位处理规范缺失、错误提示模糊及动态输入配置异常问题</t>
+  </si>
+  <si>
+    <t>ais_bench.infer.interface推理出现问题</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0289146733377687050-1-1.html</t>
+  </si>
+  <si>
+    <t>【ais-bench推理工具】【模型推理运行正常，析构失败】</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I6O6F8</t>
+  </si>
+  <si>
+    <t>【ais-bench推理工具】【错误码提示不清晰，需要完善】</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I6O6CY</t>
+  </si>
+  <si>
+    <t>ais_bench 推理程序的 help 文本疑似有误</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I6F0T9</t>
+  </si>
+  <si>
+    <t>【ais-bench 推理工具】使用--dymShape_range参数执行推理失败</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I6QUJT</t>
+  </si>
+  <si>
+    <t>使用Ais_bench推理多次报错[-1][ACL: general failure]</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/IC346C</t>
+  </si>
+  <si>
+    <t>【ais-bench推理工具】【64bs resnet模型端到端耗时过长，需要优化】</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I6O6ES</t>
+  </si>
+  <si>
+    <t>【ais-bench推理工具】【英文版说明没有更新】</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I6O6FI</t>
+  </si>
+  <si>
+    <t>【ais-bench推理工具】【错误信息完善】</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I6O6DC</t>
+  </si>
+  <si>
+    <t>ais_infer推理和使用benchmark推理输出bin不一致的问题</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I5FZPB</t>
+  </si>
+  <si>
+    <t>benchmark、ais_bench输出结果不一样</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I7GK22</t>
+  </si>
+  <si>
+    <t>模型适配与新硬件支持</t>
+  </si>
+  <si>
+    <t>昇腾310系列芯片上YOLO模型OM转换需解决输入尺寸适配和AIPP预处理一致性问题</t>
+  </si>
+  <si>
+    <t>使用AIPP后推理结果错误</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0201114078125309016-1-1.html</t>
+  </si>
+  <si>
+    <t>图片经AIPP处理后推理结果和未经AIPP处理的推理结果不一致。</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0266136624565154018-1-1.html</t>
+  </si>
+  <si>
+    <t>yolov7转换得到的om模型对高宽比大于1.5左右的图片识别结果错误</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/samples/issues/IC9L4Q</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0237183096692632168-1-1.html</t>
+  </si>
+  <si>
+    <t>yolov8m模型转成om后进行推理报错，显示图片输入尺寸不对</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0225131008210090043-1-1.html</t>
+  </si>
+  <si>
+    <t>YOLOV8模型转完OM文件后推理成功但精度损失较大</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I97EDM</t>
+  </si>
+  <si>
+    <t>yolov8mpt模型转为om后进行推理，报错显示输入的尺寸不对</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0270131012222771056-1-1.html</t>
+  </si>
+  <si>
+    <t>环境配置问题</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者编译时面临环境变量与头文件路径配置问题</t>
+  </si>
+  <si>
+    <t>编译aclLite报错/交叉编译开发环境如何搭建</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/samples/issues/IC8KRJ</t>
+  </si>
+  <si>
+    <t>acllite make出现错误</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0281136518162687003-1-1.html</t>
+  </si>
+  <si>
+    <t>编译cplusplus/level2_simple_inference/0_data_process/vdec失败</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/samples/issues/ICA9P3</t>
+  </si>
+  <si>
+    <t>vscode找不到acl.h</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I6A88C</t>
+  </si>
+  <si>
+    <t>生态可扩展性</t>
+  </si>
+  <si>
+    <t>开发者如何利用Autofuse实现AscendC代码自动融合和多模板tiling生成优化</t>
+  </si>
+  <si>
+    <t>Autofuse：支持生成AscendC的proto/tiling/kernel代码</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5XP</t>
+  </si>
+  <si>
+    <t>Autofuse：支持自动融合和代码生成</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N0CT</t>
+  </si>
+  <si>
+    <t>Autofuse：定义ascir并提供构图接口</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5WN</t>
+  </si>
+  <si>
+    <t>Autofuse/codegen：支持多模板和tiling选择生成</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8PH8N</t>
+  </si>
+  <si>
+    <t>Autofuse：支持Optimize优化补充代码生成所需信息</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5XO</t>
+  </si>
+  <si>
+    <t>Autofuse/ascir：定义高阶Api原型</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5Y9</t>
+  </si>
+  <si>
+    <t>Autofuse/optimize：支持读取高阶Api信息补充到节点属性</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5XR</t>
+  </si>
+  <si>
+    <t>Autofuse/codegen：支持生成kernel侧代码</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5YY</t>
+  </si>
+  <si>
+    <t>Autofuse/codegen：支持stride表达的指令映射</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8PH9W</t>
+  </si>
+  <si>
+    <t>Autofuse/optimize：支持分配TQue/TBuf并补充到图的节点和tensor属性</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5XU</t>
+  </si>
+  <si>
+    <t>基础算子缺陷修复</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者如何解决BLAS算子AddConfig配置后在Ascend310系硬件平台出现批量case错误问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Bug-Report|缺陷反馈]: isamax算子在香橙派 Ascend310b 大部分样例结果错误 </t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/cann-ops/issues/IC8IUT</t>
+  </si>
+  <si>
+    <t>[Bug-Report|缺陷反馈]: sasum在香橙派 Ascend310b 大部分样例结果错误</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/cann-ops/issues/IC8IR8</t>
+  </si>
+  <si>
+    <t>[Bug-Report|缺陷反馈]: isamin 在Atlas 200I DK A2测试大部分均result error</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/cann-ops/issues/IC8ITQ</t>
+  </si>
+  <si>
+    <t>API接口稳定性</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者调用单算子API在Atlas 200I DK A2平台触发ERROR 561103空指针异常</t>
+  </si>
+  <si>
+    <t>根据CANN社区版8.0.0.alpha001的文档调用单算子API，编译成功，但是运行报错：aclnnAddGetWorkspaceSize failed. ERROR: 561103</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02108183654631289220-1-1.html</t>
+  </si>
+  <si>
+    <t>使用aclnnMatmul的时候报错：aclnnMatmulGetWorkspaceSize failed. ERROR: 561103</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02108183029427616162-1-1.html</t>
+  </si>
+  <si>
+    <t>aclnnMatmul算子调用出错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0261153110635340011-1-1.html</t>
+  </si>
+  <si>
+    <t>安装与部署问题</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者面临多版本安装/卸载异常，需解决OPP模块路径缺失、软链删除失败及权限校验问题</t>
+  </si>
+  <si>
+    <t>Atlas800I A2安装CANN报错：opp_uninstall.sh不存在</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0226183785107239008-1-1.html</t>
+  </si>
+  <si>
+    <t>安装 Ascend-cann-toolkit_8.1.RC1_linux-aarch64.run 失败</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0237183196156024184-1-1.html</t>
+  </si>
+  <si>
+    <t>离线安装Ascend-cann-toolkit_6.0.RC1_linux-aarch64   一直报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0293147952701841019-1-1.html</t>
+  </si>
+  <si>
+    <t>学习资源完善</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者如何掌握AI全栈架构实现模型加速</t>
+  </si>
+  <si>
+    <t>昇腾AI入门课</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0258120405609035011-1-1.html</t>
+  </si>
+  <si>
+    <t>想要学习升腾相关技术</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0242129876073507059-1-1.html</t>
+  </si>
+  <si>
+    <t>华为昇腾AI处理器</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0283137174074725008-1-1.html</t>
+  </si>
+  <si>
+    <t>自定义算子开发</t>
+  </si>
+  <si>
+    <t>开发者解决自定义融合规则导致的NPU符号缺失问题</t>
+  </si>
+  <si>
+    <t>模型训练时指定自定义融合规则配置文件，训练报错</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I9T4FS</t>
+  </si>
+  <si>
+    <t>在 npu 上运行编译后的模型报错</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I93WIU</t>
+  </si>
+  <si>
+    <t>算子精度验证</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者寻求算子测试失败和输入形状精度异常的解决方法</t>
+  </si>
+  <si>
+    <t>[Bug-Report|缺陷反馈]: sscal在Atlas 200I DK A2测试泛化性不足，部分shape运行结果精度异常</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/cann-ops/issues/IC8IQX</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/cann-ops/issues/IC8IQV</t>
+  </si>
+  <si>
+    <t>[Bug-Report|缺陷反馈]: scasum在Atlas 200I DK A2测试泛化性不足，部分shape运行结果精度异常</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/cann-ops/issues/IC8IJC</t>
+  </si>
+  <si>
+    <t>大模型支持</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者需验证llama2模型的融合性能</t>
+  </si>
+  <si>
+    <t>E2E：验证llama2的融合性能</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5YG</t>
+  </si>
+  <si>
+    <t>E2E：支持llama2的执行</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5YF</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5YL</t>
+  </si>
+  <si>
+    <t>硬件资源管理</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者加载张量或模型权重至310P3 NPU时显存占用固定于98MB且程序卡死</t>
+  </si>
+  <si>
+    <t>任何张量加载到NPU都会只占用98Mb（很奇怪的一个数字）然后卡住</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0237183630703446231-1-1.html</t>
+  </si>
+  <si>
+    <t>数据加载到NPU卡住</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/samples/issues/ICALGE</t>
+  </si>
+  <si>
+    <t>模型性能优化</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者如何通过ATB算子优化实现YOLOv5模型部署的精度与性能平衡</t>
+  </si>
+  <si>
+    <t>2021 A</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0297148308709075022-1-1.html</t>
+  </si>
+  <si>
+    <t>2021 D</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0297148309636578023-1-1.html</t>
+  </si>
+  <si>
+    <t>精度验证工具完善</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者使用一键精度对比工具检测模型时报错，需排查NPU输出与Ground Truth形状不匹配问题</t>
+  </si>
+  <si>
+    <t>[应用开发]使用一键精度对比工具对Cognitive_Planning做精度对比报错</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I67ILI</t>
+  </si>
+  <si>
+    <t>[应用开发]使用一键精度对比工具对Smith做精度对比报错</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I681EP</t>
+  </si>
+  <si>
+    <t>计算模式验证</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者如何验证Inductor算子的纯vector和混合计算模式</t>
+  </si>
+  <si>
+    <t>E2E：支持softmax的Inductor计算（验证纯vector计算</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5YI</t>
+  </si>
+  <si>
+    <t>E2E：支持layernorm的Inductor计算（验证纯vector计算）</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5YH</t>
+  </si>
+  <si>
+    <t>E2E：支持flashattention的Inductor计算（验证矩阵向量混合计算）</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5YJ</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者需解决ATC模型转换中的算子兼容性、动态形状支持及精度对齐问题</t>
+  </si>
+  <si>
+    <t>跑开发板案例太简单？跑个昇腾 CANN 推理全流程！</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0231123313987057018-1-1.html</t>
+  </si>
+  <si>
+    <t>Dynamic shape is not supported on this chip!</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0250115280625171063-1-1.html</t>
+  </si>
+  <si>
+    <t>快速解决问题的关键：【CANN板块发帖指南】</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0296166241191125146-1-1.html</t>
+  </si>
+  <si>
+    <t>模型转换失败</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0231151218923966090-1-1.html</t>
+  </si>
+  <si>
+    <t>ATC转换自己训练的模型，一直转换不了</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0232146996600629075-1-1.html</t>
+  </si>
+  <si>
+    <t>提高om模型正确率</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02104164341921644149-1-1.html</t>
+  </si>
+  <si>
+    <t>模型转换</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02100166518022251003-1-1.html</t>
+  </si>
+  <si>
+    <t>onnx转om模型报错，Segmentation fault (core dumped)</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02102183371294732180-1-1.html</t>
+  </si>
+  <si>
+    <t>onnx使用atc 模型转换</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02102183352936556174-1-1.html</t>
+  </si>
+  <si>
+    <t>ATC模型转换失败</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I6HL4Q</t>
+  </si>
+  <si>
+    <t>atc模型转换cce编译报错</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I52LJT</t>
+  </si>
+  <si>
+    <t>DETR.onnx模型转化为.om模型atc failed</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0297148102201643002-1-1.html</t>
+  </si>
+  <si>
+    <t>ATC转换RT-DERT时报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0237182402660926094-1-1.html</t>
+  </si>
+  <si>
+    <t>GroundingDino在Altas300上模型转换失败</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0237181022913671008-1-1.html</t>
+  </si>
+  <si>
+    <t>ONNX模型推理结果与转换的OM模型推理结果差异很大</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0246129780671242059-1-1.html</t>
+  </si>
+  <si>
+    <t>[应用开发]使用一键精度对比工具对c3d做精度对比报错</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I66IZW</t>
+  </si>
+  <si>
+    <t>把onnx转换成om后，执行推理，图片分割结果不正确</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02108183690515604221-1-1.html</t>
+  </si>
+  <si>
+    <t>ONNX可以成功使用ATC转成om文件，但是精度不对。</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0237151731156412148-1-1.html</t>
+  </si>
+  <si>
+    <t>atc模型转换（onnx转om）报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0262137755711900019-1-1.html</t>
+  </si>
+  <si>
+    <t>faster_rcnn.onnx模型转化成om模型失败</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0232146903768159070-1-1.html</t>
+  </si>
+  <si>
+    <t>量化后的onnx模型转成om模型失败</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02108183024048495158-1-1.html</t>
+  </si>
+  <si>
+    <t>模型转换后运行报错</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I9N27H</t>
+  </si>
+  <si>
+    <t>ais_bench动态shape模型推理报错</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/IALG44</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> python3 -m ais_bench --model ../model/detrnoaipp.om 报错</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/IAF494</t>
+  </si>
+  <si>
+    <t>om模型转换报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0255148205595963014-1-1.html</t>
+  </si>
+  <si>
+    <t>【Ascend C标准算子编译报错问题解决方案(持续更新)】</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0284179983532114019-1-1.html</t>
+  </si>
+  <si>
+    <t>ATC转换模型失败</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0225142581618012022-1-1.html</t>
+  </si>
+  <si>
+    <t>关于使用atc转化onnx模型出现E10042报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0290147267420921008-1-1.html</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02102183693864736207-1-1.html</t>
+  </si>
+  <si>
+    <t>ython3 -m ais_bench --model ../model/detrnoaipp.om  报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0286157168069273400-1-1.html</t>
+  </si>
+  <si>
+    <t>转换失败</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/IAHZZO</t>
+  </si>
+  <si>
+    <t>ATC转换Onnx失败求助</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0224126007333622013-1-1.html</t>
+  </si>
+  <si>
+    <t>使用 ATC 转换 ONNX 模型时报错 Param: src_out_anchor is nullptr</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0284137673351389010-1-1.html</t>
+  </si>
+  <si>
+    <t>模型转换失败om</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0232145882972638001-1-1.html</t>
+  </si>
+  <si>
+    <t>模型加载出错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0285140841372362096-1-1.html</t>
+  </si>
+  <si>
+    <t>使用精度对比工具msquickcmp报错ONNXRuntimeError</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I70F1C</t>
+  </si>
+  <si>
+    <t>一键全流程精度比对工具没有结果输出</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I4SDQ4</t>
+  </si>
+  <si>
+    <t>快速解决问题的关键：【AscendC板块发帖指南】</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0230168661941674028-1-1.html</t>
+  </si>
+  <si>
+    <t>atc命令转onnx模型失败</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0289146738830791051-1-1.html</t>
+  </si>
+  <si>
+    <t>模型转换后无法使用，输出结果完全不对</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0281144479138071094-1-1.html</t>
+  </si>
+  <si>
+    <t>ATC模型转换报错EC0010的解决方法</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0238166325574705139-1-1.html</t>
+  </si>
+  <si>
+    <t>ONNX转换到OM做推理，即使所有算子设置为fp32，推理精度仍然无法对齐</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0281136573962007007-1-1.html</t>
+  </si>
+  <si>
+    <t>bilstmcrf执行一键精度对比时报错</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I6POHQ</t>
+  </si>
+  <si>
+    <t>atc转换模型失败</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0279183282947107045-1-1.html</t>
+  </si>
+  <si>
+    <t>使用atc将自己的onnx转为om模型时报E10001</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0281137070695141037-1-1.html</t>
+  </si>
+  <si>
+    <t>yolov5x  pt&gt;onnx&gt;om  om模型报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0297148114905569003-1-1.html</t>
+  </si>
+  <si>
+    <t>ACT转换yolov5的onnx模型出现问题</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0257124359971806011-1-1.html</t>
+  </si>
+  <si>
+    <t>msquick工具运行报错</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I61X6Z</t>
+  </si>
+  <si>
+    <t>yolov5权重转换</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0294147507309160005-1-1.html</t>
+  </si>
+  <si>
+    <t>加载模型报错500002解决方法</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0296166331718266158-1-1.html</t>
+  </si>
+  <si>
+    <t>om模型推理报错 E19999</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I5PEXR</t>
+  </si>
+  <si>
+    <t>om模型较onnx模型对比推理精度变差</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I5KLHI</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I5EJFR</t>
+  </si>
+  <si>
+    <t>一键精度比对工具报错</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I4V47U</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者需要明确E+E/B+R融合的适用场景及配置参数</t>
+  </si>
+  <si>
+    <t>E+E融合判断</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8PQ0U</t>
+  </si>
+  <si>
+    <t>E+B融合判断</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8PQ11</t>
+  </si>
+  <si>
+    <t>E+R融合判断</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8PQ13</t>
+  </si>
+  <si>
+    <t>B+R融合判断</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8PQ1B</t>
+  </si>
+  <si>
+    <t>开发者需排查自定义OM模型加载失败的关键配置及日志分析</t>
+  </si>
+  <si>
+    <t>acl.mdl.load_from_file返回ret=145000</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0205183808507881011-1-1.html</t>
+  </si>
+  <si>
+    <t>使用应用案例：风格迁移系统，加载模型报错 acl.mdl.load_from_file failed ret_int=545002</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0281144580223213104-1-1.html</t>
+  </si>
+  <si>
+    <t>CANN开发者需排查ONNX Runtime CANN后端性能反向加速问题</t>
+  </si>
+  <si>
+    <t>onnxruntime-cann推理速度比cpu慢一倍</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0269152432797714039-1-1.html</t>
+  </si>
+  <si>
+    <t>对 onnxruntime-cann 的一些想法</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02102183375078257181-1-1.html</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者在ONNX转OM工具链版本验证及跨设备部署soc兼容性分析</t>
+  </si>
+  <si>
+    <t>om推理报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02113175152884692058-1-1.html</t>
+  </si>
+  <si>
+    <t>【Atlas 200I DK A2】onnx转om失败</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0255182415578200087-1-1.html</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者如何解决SenseVoice ACL推理初始化失败及模型适配问题</t>
+  </si>
+  <si>
+    <t>sensevoice推理报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02108173815438515275-1-1.html</t>
+  </si>
+  <si>
+    <t>sensevoice推理报错，返回错误码500002</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02108173814998442274-1-1.html</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者如何配置离线部署中的本地镜像路径、免密登录及Ansible参数</t>
+  </si>
+  <si>
+    <t>离线安装</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0237149762954486031-1-1.html</t>
+  </si>
+  <si>
+    <t>离线安装工具：ascend-deploye</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0254119580694772050-1-1.html</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者需要下载AscendCL开发套件获取libascendcl.so</t>
+  </si>
+  <si>
+    <t>libascendcl.so运行找不到这个文件，请问在什么位置下载？</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0262144571877312103-1-1.html</t>
+  </si>
+  <si>
+    <t>/usr/lib/ld:cannot find -lascendcl</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I62B83</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者如何获取icache指令加载及cache miss分析资料</t>
+  </si>
+  <si>
+    <t>icache和指令加载的知识点有详细资料不</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0225132200884168106-1-1.html</t>
+  </si>
+  <si>
+    <t>icase和指令加载的知识点有详细资料不</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0225131961943616086-1-1.html</t>
+  </si>
+  <si>
+    <t>开发者在ATC转换ONNX模型时遇到不兼容节点致推理异常</t>
+  </si>
+  <si>
+    <t>推理出现问题</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I9BHGJ</t>
+  </si>
+  <si>
+    <t>OM模型推理出错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02108183286974580193-1-1.html</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者使用msOpGen定义复杂算子输入参数时类型长度与属性类型不匹配</t>
+  </si>
+  <si>
+    <t>msOpGen编写复杂输入参数算子原型定义文件</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02102182431331486085-1-1.html</t>
+  </si>
+  <si>
+    <t>msOpGen编写复杂算子原型定义文件</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-02102181354769801037-1-1.html</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者运行run.sh时报错，需检查组件版本兼容性并更新至官方要求</t>
+  </si>
+  <si>
+    <t>在运行run.sh时出现报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0236177061362063063-1-1.html</t>
+  </si>
+  <si>
+    <t>版本报错</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0292180172684622045-1-1.html</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者需明确自定义算子开发验证及认证提交流程</t>
+  </si>
+  <si>
+    <t>香橙派实验手册</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0286156764571683363-1-1.html</t>
+  </si>
+  <si>
+    <t>https://www.hiascend.com/forum/thread-0261156997490942389-1-1.html</t>
+  </si>
+  <si>
+    <t>开发者在寻找昇腾CANN中某工具的具体使用指南或适配方法</t>
+  </si>
+  <si>
+    <t>这里需要使用</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/Mind-KernelInfra/issues/IA8SIL</t>
+  </si>
+  <si>
+    <t>如下图所示:</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I5FEKN</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者如何选择E+B、E+R、B+R等tiling策略优化模型性能</t>
+  </si>
+  <si>
+    <t>tilng策略：E+B, E+R</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8PQ2V</t>
+  </si>
+  <si>
+    <t>tiling策略：B+R</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8PQ3P</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者如何正确使用多模板生成tiling案例</t>
+  </si>
+  <si>
+    <t>多模板：tiling case生成</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8PQ1Y</t>
+  </si>
+  <si>
+    <t>多模板：tiling切分多模板</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8NXXJ</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者寻求AscendC高阶API扩展注册与映射方案</t>
+  </si>
+  <si>
+    <t>AscendC：扩展AscendC进行高阶Api注册和映射</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5WQ</t>
+  </si>
+  <si>
+    <t>AscendC：扩展高阶Api在Ascend910/Ascend310上的高阶Api信息</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/torchair/issues/I8N5YB</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者需优化计算图结构及内存访问模式以提升Cube利用率</t>
+  </si>
+  <si>
+    <t>优化 PpMatmulEinSumKernel 算子性能</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/ascend-transformer-boost/issues/IC5ZY1</t>
+  </si>
+  <si>
+    <t>优化 PagedMultiLatentAttentionCombineCacheMaskNdKernel 算子 性能</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/ascend-transformer-boost/issues/IC5ZXP</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者如何处理msprof性能数据导出失败问题，需排查工具兼容性和参数配置</t>
+  </si>
+  <si>
+    <t>msprof 性能数据导出报错</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I8EWKC</t>
+  </si>
+  <si>
+    <t>msprof命令行方式采集性能数据报错</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I6DDHB</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者如何调整模型输入尺寸解决加载和运行不匹配问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check i:0 name:input in size:38400 needsize:102400 not match  </t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/IC3CNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Check i:0 name:input in size:602112 needsize:1769472 not match</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I9BHDL</t>
+  </si>
+  <si>
+    <t>昇腾CANN开发者在Atlas500使用AIS_Bench加载YOLOv10 OM模型失败需排查</t>
+  </si>
+  <si>
+    <t>使用ais_bench在atlas500小站上推理yolo报模型加载失败</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/IB76IY</t>
+  </si>
+  <si>
+    <t>yolov10模型转换后无法进行推理</t>
+  </si>
+  <si>
+    <t>https://gitee.com/ascend/tools/issues/I9V22E</t>
   </si>
 </sst>
 </file>
@@ -865,10 +1786,10 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="19">
@@ -876,10 +1797,10 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>35</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="20">
@@ -887,10 +1808,10 @@
         <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
         <v>37</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="21">
@@ -898,10 +1819,10 @@
         <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>39</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="22">
@@ -909,41 +1830,65 @@
         <v>6</v>
       </c>
       <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>2</v>
+        <v>46</v>
+      </c>
+      <c r="C25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="28">
@@ -951,10 +1896,10 @@
         <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29">
@@ -962,10 +1907,10 @@
         <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30">
@@ -973,10 +1918,10 @@
         <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31">
@@ -984,10 +1929,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32">
@@ -995,10 +1940,10 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33">
@@ -1006,63 +1951,63 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s">
-        <v>6</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>3</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B38" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
-      </c>
-      <c r="C39" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>6</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41">
@@ -1070,10 +2015,10 @@
         <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42">
@@ -1081,10 +2026,10 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43">
@@ -1092,41 +2037,65 @@
         <v>6</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>76</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>80</v>
+      </c>
+      <c r="C46" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B47" t="s">
-        <v>66</v>
+        <v>82</v>
+      </c>
+      <c r="C47" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="49">
@@ -1134,10 +2103,10 @@
         <v>6</v>
       </c>
       <c r="B49" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>87</v>
       </c>
     </row>
     <row r="50">
@@ -1145,10 +2114,10 @@
         <v>6</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="C50" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51">
@@ -1156,10 +2125,10 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52">
@@ -1177,7 +2146,7 @@
         <v>1</v>
       </c>
       <c r="B54" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
     </row>
     <row r="55">
@@ -1185,7 +2154,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="56">
@@ -1198,10 +2167,10 @@
         <v>6</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="C57" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58">
@@ -1209,94 +2178,118 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="C58" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>98</v>
+      </c>
+      <c r="C59" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B61" t="s">
-        <v>6</v>
+        <v>101</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>103</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>105</v>
+      </c>
+      <c r="C63" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s">
-        <v>6</v>
-      </c>
-      <c r="B64" t="s">
-        <v>80</v>
-      </c>
-      <c r="C64" t="s">
-        <v>81</v>
-      </c>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B65" t="s">
-        <v>82</v>
-      </c>
-      <c r="C65" t="s">
-        <v>83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B67" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" t="s">
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
-        <v>85</v>
+        <v>109</v>
+      </c>
+      <c r="C69" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B70" t="s">
+        <v>111</v>
+      </c>
+      <c r="C70" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="71">
@@ -1304,10 +2297,10 @@
         <v>6</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>113</v>
       </c>
       <c r="C71" t="s">
-        <v>87</v>
+        <v>114</v>
       </c>
     </row>
     <row r="72">
@@ -1315,65 +2308,41 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>116</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s">
-        <v>6</v>
-      </c>
-      <c r="B73" t="s">
-        <v>90</v>
-      </c>
-      <c r="C73" t="s">
-        <v>91</v>
-      </c>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>6</v>
-      </c>
-      <c r="B74" t="s">
-        <v>92</v>
-      </c>
-      <c r="C74" t="s">
-        <v>93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
-      </c>
-      <c r="C75" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>96</v>
-      </c>
-      <c r="C76" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>6</v>
-      </c>
-      <c r="B77" t="s">
-        <v>98</v>
-      </c>
-      <c r="C77" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78">
@@ -1381,10 +2350,10 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="C78" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79">
@@ -1392,10 +2361,10 @@
         <v>6</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C79" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
@@ -1403,10 +2372,10 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="C80" t="s">
-        <v>105</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81">
@@ -1414,10 +2383,10 @@
         <v>6</v>
       </c>
       <c r="B81" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C81" t="s">
-        <v>107</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82">
@@ -1425,10 +2394,10 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C82" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83">
@@ -1436,80 +2405,2427 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="C83" t="s">
-        <v>111</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-      <c r="C84" s="1"/>
+      <c r="A84" t="s">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>131</v>
+      </c>
+      <c r="C84" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C85" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>112</v>
+        <v>135</v>
+      </c>
+      <c r="C86" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>113</v>
+        <v>137</v>
+      </c>
+      <c r="C87" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s">
-        <v>5</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>6</v>
-      </c>
-      <c r="B89" t="s">
-        <v>114</v>
-      </c>
-      <c r="C89" t="s">
-        <v>115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
-      </c>
-      <c r="C90" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
-      </c>
-      <c r="C91" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>6</v>
+      </c>
+      <c r="B93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C93" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>6</v>
+      </c>
+      <c r="B94" t="s">
+        <v>143</v>
+      </c>
+      <c r="C94" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s">
+        <v>145</v>
+      </c>
+      <c r="C95" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>3</v>
+      </c>
+      <c r="B99" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>149</v>
+      </c>
+      <c r="C101" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>6</v>
+      </c>
+      <c r="B102" t="s">
+        <v>151</v>
+      </c>
+      <c r="C102" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>6</v>
+      </c>
+      <c r="B103" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>3</v>
+      </c>
+      <c r="B107" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>6</v>
+      </c>
+      <c r="B109" t="s">
+        <v>157</v>
+      </c>
+      <c r="C109" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>6</v>
+      </c>
+      <c r="B110" t="s">
+        <v>159</v>
+      </c>
+      <c r="C110" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>6</v>
+      </c>
+      <c r="B111" t="s">
+        <v>161</v>
+      </c>
+      <c r="C111" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>165</v>
+      </c>
+      <c r="C117" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" t="s">
+        <v>167</v>
+      </c>
+      <c r="C118" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>6</v>
+      </c>
+      <c r="B119" t="s">
+        <v>169</v>
+      </c>
+      <c r="C119" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>3</v>
+      </c>
+      <c r="B123" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" t="s">
+        <v>173</v>
+      </c>
+      <c r="C125" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>6</v>
+      </c>
+      <c r="B126" t="s">
+        <v>175</v>
+      </c>
+      <c r="C126" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>3</v>
+      </c>
+      <c r="B130" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" t="s">
+        <v>179</v>
+      </c>
+      <c r="C132" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>6</v>
+      </c>
+      <c r="B133" t="s">
+        <v>179</v>
+      </c>
+      <c r="C133" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>6</v>
+      </c>
+      <c r="B134" t="s">
+        <v>182</v>
+      </c>
+      <c r="C134" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>1</v>
+      </c>
+      <c r="B137" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>3</v>
+      </c>
+      <c r="B138" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>6</v>
+      </c>
+      <c r="B140" t="s">
+        <v>186</v>
+      </c>
+      <c r="C140" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>6</v>
+      </c>
+      <c r="B141" t="s">
+        <v>188</v>
+      </c>
+      <c r="C141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>6</v>
+      </c>
+      <c r="B142" t="s">
+        <v>188</v>
+      </c>
+      <c r="C142" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>3</v>
+      </c>
+      <c r="B146" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>193</v>
+      </c>
+      <c r="C148" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>6</v>
+      </c>
+      <c r="B149" t="s">
+        <v>195</v>
+      </c>
+      <c r="C149" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>6</v>
+      </c>
+      <c r="B155" t="s">
+        <v>199</v>
+      </c>
+      <c r="C155" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>6</v>
+      </c>
+      <c r="B156" t="s">
+        <v>201</v>
+      </c>
+      <c r="C156" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>1</v>
+      </c>
+      <c r="B159" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>3</v>
+      </c>
+      <c r="B160" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>6</v>
+      </c>
+      <c r="B162" t="s">
+        <v>205</v>
+      </c>
+      <c r="C162" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>6</v>
+      </c>
+      <c r="B163" t="s">
+        <v>207</v>
+      </c>
+      <c r="C163" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>1</v>
+      </c>
+      <c r="B166" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>211</v>
+      </c>
+      <c r="C169" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>6</v>
+      </c>
+      <c r="B170" t="s">
+        <v>213</v>
+      </c>
+      <c r="C170" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" t="s">
+        <v>215</v>
+      </c>
+      <c r="C171" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1"/>
+      <c r="B172" s="1"/>
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>1</v>
+      </c>
+      <c r="B174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" t="s">
+        <v>218</v>
+      </c>
+      <c r="C177" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" t="s">
+        <v>220</v>
+      </c>
+      <c r="C178" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>6</v>
+      </c>
+      <c r="B179" t="s">
+        <v>222</v>
+      </c>
+      <c r="C179" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>6</v>
+      </c>
+      <c r="B180" t="s">
+        <v>224</v>
+      </c>
+      <c r="C180" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>6</v>
+      </c>
+      <c r="B181" t="s">
+        <v>226</v>
+      </c>
+      <c r="C181" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>6</v>
+      </c>
+      <c r="B182" t="s">
+        <v>228</v>
+      </c>
+      <c r="C182" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>230</v>
+      </c>
+      <c r="C183" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>6</v>
+      </c>
+      <c r="B184" t="s">
+        <v>232</v>
+      </c>
+      <c r="C184" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" t="s">
+        <v>234</v>
+      </c>
+      <c r="C185" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>6</v>
+      </c>
+      <c r="B186" t="s">
+        <v>236</v>
+      </c>
+      <c r="C186" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" t="s">
+        <v>238</v>
+      </c>
+      <c r="C187" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>6</v>
+      </c>
+      <c r="B188" t="s">
+        <v>240</v>
+      </c>
+      <c r="C188" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" t="s">
+        <v>242</v>
+      </c>
+      <c r="C189" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" t="s">
+        <v>244</v>
+      </c>
+      <c r="C190" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" t="s">
+        <v>246</v>
+      </c>
+      <c r="C191" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" t="s">
+        <v>248</v>
+      </c>
+      <c r="C192" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>6</v>
+      </c>
+      <c r="B193" t="s">
+        <v>250</v>
+      </c>
+      <c r="C193" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>6</v>
+      </c>
+      <c r="B194" t="s">
+        <v>252</v>
+      </c>
+      <c r="C194" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>6</v>
+      </c>
+      <c r="B195" t="s">
+        <v>254</v>
+      </c>
+      <c r="C195" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>6</v>
+      </c>
+      <c r="B196" t="s">
+        <v>256</v>
+      </c>
+      <c r="C196" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>6</v>
+      </c>
+      <c r="B197" t="s">
+        <v>258</v>
+      </c>
+      <c r="C197" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>6</v>
+      </c>
+      <c r="B198" t="s">
+        <v>260</v>
+      </c>
+      <c r="C198" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>6</v>
+      </c>
+      <c r="B199" t="s">
+        <v>262</v>
+      </c>
+      <c r="C199" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>6</v>
+      </c>
+      <c r="B200" t="s">
+        <v>264</v>
+      </c>
+      <c r="C200" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>6</v>
+      </c>
+      <c r="B201" t="s">
+        <v>266</v>
+      </c>
+      <c r="C201" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>6</v>
+      </c>
+      <c r="B202" t="s">
+        <v>268</v>
+      </c>
+      <c r="C202" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>6</v>
+      </c>
+      <c r="B203" t="s">
+        <v>270</v>
+      </c>
+      <c r="C203" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>6</v>
+      </c>
+      <c r="B204" t="s">
+        <v>272</v>
+      </c>
+      <c r="C204" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>6</v>
+      </c>
+      <c r="B205" t="s">
+        <v>224</v>
+      </c>
+      <c r="C205" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>6</v>
+      </c>
+      <c r="B206" t="s">
+        <v>275</v>
+      </c>
+      <c r="C206" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>6</v>
+      </c>
+      <c r="B207" t="s">
+        <v>277</v>
+      </c>
+      <c r="C207" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>6</v>
+      </c>
+      <c r="B208" t="s">
+        <v>279</v>
+      </c>
+      <c r="C208" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>6</v>
+      </c>
+      <c r="B209" t="s">
+        <v>281</v>
+      </c>
+      <c r="C209" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>6</v>
+      </c>
+      <c r="B210" t="s">
+        <v>283</v>
+      </c>
+      <c r="C210" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>6</v>
+      </c>
+      <c r="B211" t="s">
+        <v>285</v>
+      </c>
+      <c r="C211" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>6</v>
+      </c>
+      <c r="B212" t="s">
+        <v>287</v>
+      </c>
+      <c r="C212" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>6</v>
+      </c>
+      <c r="B213" t="s">
+        <v>289</v>
+      </c>
+      <c r="C213" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>6</v>
+      </c>
+      <c r="B214" t="s">
+        <v>291</v>
+      </c>
+      <c r="C214" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215" t="s">
+        <v>293</v>
+      </c>
+      <c r="C215" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" t="s">
+        <v>295</v>
+      </c>
+      <c r="C216" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s">
+        <v>297</v>
+      </c>
+      <c r="C217" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>299</v>
+      </c>
+      <c r="C218" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s">
+        <v>301</v>
+      </c>
+      <c r="C219" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" t="s">
+        <v>303</v>
+      </c>
+      <c r="C220" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>305</v>
+      </c>
+      <c r="C221" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>307</v>
+      </c>
+      <c r="C222" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>309</v>
+      </c>
+      <c r="C223" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>311</v>
+      </c>
+      <c r="C224" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" t="s">
+        <v>313</v>
+      </c>
+      <c r="C225" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>315</v>
+      </c>
+      <c r="C226" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" t="s">
+        <v>317</v>
+      </c>
+      <c r="C227" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" t="s">
+        <v>319</v>
+      </c>
+      <c r="C228" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>289</v>
+      </c>
+      <c r="C229" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" t="s">
+        <v>322</v>
+      </c>
+      <c r="C230" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1"/>
+      <c r="B231" s="1"/>
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>1</v>
+      </c>
+      <c r="B233" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>3</v>
+      </c>
+      <c r="B234" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" t="s">
+        <v>325</v>
+      </c>
+      <c r="C236" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>327</v>
+      </c>
+      <c r="C237" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" t="s">
+        <v>329</v>
+      </c>
+      <c r="C238" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s">
+        <v>331</v>
+      </c>
+      <c r="C239" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1"/>
+      <c r="B240" s="1"/>
+      <c r="C240" s="1"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>1</v>
+      </c>
+      <c r="B242" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>3</v>
+      </c>
+      <c r="B243" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" t="s">
+        <v>334</v>
+      </c>
+      <c r="C245" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" t="s">
+        <v>336</v>
+      </c>
+      <c r="C246" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1"/>
+      <c r="B247" s="1"/>
+      <c r="C247" s="1"/>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>1</v>
+      </c>
+      <c r="B249" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>3</v>
+      </c>
+      <c r="B250" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>6</v>
+      </c>
+      <c r="B252" t="s">
+        <v>339</v>
+      </c>
+      <c r="C252" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>6</v>
+      </c>
+      <c r="B253" t="s">
+        <v>341</v>
+      </c>
+      <c r="C253" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1"/>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>1</v>
+      </c>
+      <c r="B256" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>3</v>
+      </c>
+      <c r="B257" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>6</v>
+      </c>
+      <c r="B259" t="s">
+        <v>344</v>
+      </c>
+      <c r="C259" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>6</v>
+      </c>
+      <c r="B260" t="s">
+        <v>346</v>
+      </c>
+      <c r="C260" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>1</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>3</v>
+      </c>
+      <c r="B264" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>6</v>
+      </c>
+      <c r="B266" t="s">
+        <v>349</v>
+      </c>
+      <c r="C266" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>6</v>
+      </c>
+      <c r="B267" t="s">
+        <v>351</v>
+      </c>
+      <c r="C267" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1"/>
+      <c r="B268" s="1"/>
+      <c r="C268" s="1"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>1</v>
+      </c>
+      <c r="B270" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>3</v>
+      </c>
+      <c r="B271" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>6</v>
+      </c>
+      <c r="B273" t="s">
+        <v>354</v>
+      </c>
+      <c r="C273" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>6</v>
+      </c>
+      <c r="B274" t="s">
+        <v>356</v>
+      </c>
+      <c r="C274" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1"/>
+      <c r="B275" s="1"/>
+      <c r="C275" s="1"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>1</v>
+      </c>
+      <c r="B277" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>3</v>
+      </c>
+      <c r="B278" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>6</v>
+      </c>
+      <c r="B280" t="s">
+        <v>359</v>
+      </c>
+      <c r="C280" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>6</v>
+      </c>
+      <c r="B281" t="s">
+        <v>361</v>
+      </c>
+      <c r="C281" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1"/>
+      <c r="B282" s="1"/>
+      <c r="C282" s="1"/>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>1</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>3</v>
+      </c>
+      <c r="B285" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>6</v>
+      </c>
+      <c r="B287" t="s">
+        <v>364</v>
+      </c>
+      <c r="C287" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>6</v>
+      </c>
+      <c r="B288" t="s">
+        <v>366</v>
+      </c>
+      <c r="C288" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1"/>
+      <c r="B289" s="1"/>
+      <c r="C289" s="1"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>1</v>
+      </c>
+      <c r="B291" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>3</v>
+      </c>
+      <c r="B292" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>6</v>
+      </c>
+      <c r="B294" t="s">
+        <v>369</v>
+      </c>
+      <c r="C294" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>6</v>
+      </c>
+      <c r="B295" t="s">
+        <v>371</v>
+      </c>
+      <c r="C295" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>1</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>3</v>
+      </c>
+      <c r="B299" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>6</v>
+      </c>
+      <c r="B301" t="s">
+        <v>374</v>
+      </c>
+      <c r="C301" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>6</v>
+      </c>
+      <c r="B302" t="s">
+        <v>376</v>
+      </c>
+      <c r="C302" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1"/>
+      <c r="B303" s="1"/>
+      <c r="C303" s="1"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>1</v>
+      </c>
+      <c r="B305" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>3</v>
+      </c>
+      <c r="B306" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>6</v>
+      </c>
+      <c r="B308" t="s">
+        <v>379</v>
+      </c>
+      <c r="C308" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>6</v>
+      </c>
+      <c r="B309" t="s">
+        <v>381</v>
+      </c>
+      <c r="C309" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1"/>
+      <c r="B310" s="1"/>
+      <c r="C310" s="1"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>1</v>
+      </c>
+      <c r="B312" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>3</v>
+      </c>
+      <c r="B313" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>6</v>
+      </c>
+      <c r="B315" t="s">
+        <v>384</v>
+      </c>
+      <c r="C315" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>6</v>
+      </c>
+      <c r="B316" t="s">
+        <v>384</v>
+      </c>
+      <c r="C316" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1"/>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>1</v>
+      </c>
+      <c r="B319" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>3</v>
+      </c>
+      <c r="B320" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>6</v>
+      </c>
+      <c r="B322" t="s">
+        <v>388</v>
+      </c>
+      <c r="C322" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>6</v>
+      </c>
+      <c r="B323" t="s">
+        <v>390</v>
+      </c>
+      <c r="C323" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1"/>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>1</v>
+      </c>
+      <c r="B326" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>3</v>
+      </c>
+      <c r="B327" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>6</v>
+      </c>
+      <c r="B329" t="s">
+        <v>393</v>
+      </c>
+      <c r="C329" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>6</v>
+      </c>
+      <c r="B330" t="s">
+        <v>395</v>
+      </c>
+      <c r="C330" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1"/>
+      <c r="B331" s="1"/>
+      <c r="C331" s="1"/>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>1</v>
+      </c>
+      <c r="B333" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>3</v>
+      </c>
+      <c r="B334" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>6</v>
+      </c>
+      <c r="B336" t="s">
+        <v>398</v>
+      </c>
+      <c r="C336" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>6</v>
+      </c>
+      <c r="B337" t="s">
+        <v>400</v>
+      </c>
+      <c r="C337" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1"/>
+      <c r="B338" s="1"/>
+      <c r="C338" s="1"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>1</v>
+      </c>
+      <c r="B340" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>3</v>
+      </c>
+      <c r="B341" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>6</v>
+      </c>
+      <c r="B343" t="s">
+        <v>403</v>
+      </c>
+      <c r="C343" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>6</v>
+      </c>
+      <c r="B344" t="s">
+        <v>405</v>
+      </c>
+      <c r="C344" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1"/>
+      <c r="B345" s="1"/>
+      <c r="C345" s="1"/>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>1</v>
+      </c>
+      <c r="B347" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>3</v>
+      </c>
+      <c r="B348" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>6</v>
+      </c>
+      <c r="B350" t="s">
+        <v>408</v>
+      </c>
+      <c r="C350" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>6</v>
+      </c>
+      <c r="B351" t="s">
+        <v>410</v>
+      </c>
+      <c r="C351" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1"/>
+      <c r="B352" s="1"/>
+      <c r="C352" s="1"/>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>1</v>
+      </c>
+      <c r="B354" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>3</v>
+      </c>
+      <c r="B355" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>6</v>
+      </c>
+      <c r="B357" t="s">
+        <v>413</v>
+      </c>
+      <c r="C357" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>6</v>
+      </c>
+      <c r="B358" t="s">
+        <v>415</v>
+      </c>
+      <c r="C358" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1"/>
+      <c r="B359" s="1"/>
+      <c r="C359" s="1"/>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>1</v>
+      </c>
+      <c r="B361" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>3</v>
+      </c>
+      <c r="B362" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>6</v>
+      </c>
+      <c r="B364" t="s">
+        <v>418</v>
+      </c>
+      <c r="C364" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>6</v>
+      </c>
+      <c r="B365" t="s">
+        <v>420</v>
+      </c>
+      <c r="C365" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="1"/>
+      <c r="B366" s="1"/>
+      <c r="C366" s="1"/>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>1</v>
+      </c>
+      <c r="B368" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>3</v>
+      </c>
+      <c r="B369" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>6</v>
+      </c>
+      <c r="B371" t="s">
+        <v>423</v>
+      </c>
+      <c r="C371" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>6</v>
+      </c>
+      <c r="B372" t="s">
+        <v>425</v>
+      </c>
+      <c r="C372" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1"/>
+      <c r="B373" s="1"/>
+      <c r="C373" s="1"/>
     </row>
   </sheetData>
 </worksheet>
